--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B97A244-FFB9-4FF6-8945-23ACE726D5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC8E27-E3CB-4003-9315-37A339B6E93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -447,10 +447,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH2,S1aH4,S2aH2,S4aH2,S5aH4,S2aH4,S5aH2,S1aH3,S1aH2,S2aH3,S5aH3,S3aH3,S3aH4,S4aH3,S4aH4</t>
-  </si>
-  <si>
-    <t>S4aH5,S4aH1,S2aH1,S3aH7,S1aH6,S2aH6,S3aH1,S3aH5,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH1,S2aH7,S5aH1,S4aH6,S1aH5,S2aH5,S5aH5</t>
+    <t>S3aH3,S5aH3,S1aH3,S3aH2,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S2aH4,S5aH2,S4aH2,S5aH4,S1aH4,S2aH2</t>
+  </si>
+  <si>
+    <t>S4aH6,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH1,S2aH7,S4aH5,S1aH5,S2aH5,S5aH5,S1aH6,S2aH1,S3aH7,S4aH1,S2aH6,S3aH1,S3aH5</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH5,S4aH1,S2aH1,S3aH7,S1aH6,S2aH6,S3aH1,S3aH5,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH1,S2aH7,S5aH1,S4aH6,S1aH5,S2aH5,S5aH5</v>
+        <v>S4aH6,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH1,S2aH7,S4aH5,S1aH5,S2aH5,S5aH5,S1aH6,S2aH1,S3aH7,S4aH1,S2aH6,S3aH1,S3aH5</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH2,S1aH4,S2aH2,S4aH2,S5aH4,S2aH4,S5aH2,S1aH3,S1aH2,S2aH3,S5aH3,S3aH3,S3aH4,S4aH3,S4aH4</v>
+        <v>S3aH3,S5aH3,S1aH3,S3aH2,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S2aH4,S5aH2,S4aH2,S5aH4,S1aH4,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1667,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A54B39-3A46-4E41-B033-1A1A5EBF4F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2DC09-3C03-4312-A3BD-C21C2E9FFCE0}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1779,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B181A65C-9D97-4270-A904-ADCDDF979AC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE577269-0C76-41F7-B588-AE0D08F602AF}">
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1893,10 +1893,10 @@
         <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>0.41729025442380491</v>
+        <v>9.0853068051765115E-2</v>
       </c>
       <c r="O5" t="s">
         <v>142</v>
@@ -1928,10 +1928,10 @@
         <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.49810722774892152</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O6" t="s">
         <v>142</v>
@@ -1963,10 +1963,10 @@
         <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N7">
-        <v>9.9621445549784304E-2</v>
+        <v>0.49810722774892158</v>
       </c>
       <c r="O7" t="s">
         <v>142</v>
@@ -1998,10 +1998,10 @@
         <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N8">
-        <v>9.0853068051765115E-2</v>
+        <v>9.9621445549784304E-2</v>
       </c>
       <c r="O8" t="s">
         <v>142</v>
@@ -2793,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7B8390-5191-4BB4-8D22-08CCB49B838E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DFF6E1-F8D7-4FE4-BCD5-1F7ED59C8564}">
   <dimension ref="B2:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC8E27-E3CB-4003-9315-37A339B6E93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262199C4-95ED-478D-9247-816AD62069BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -447,10 +447,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH3,S5aH3,S1aH3,S3aH2,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S2aH4,S5aH2,S4aH2,S5aH4,S1aH4,S2aH2</t>
-  </si>
-  <si>
-    <t>S4aH6,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH1,S2aH7,S4aH5,S1aH5,S2aH5,S5aH5,S1aH6,S2aH1,S3aH7,S4aH1,S2aH6,S3aH1,S3aH5</t>
+    <t>S1aH4,S2aH2,S1aH2,S2aH3,S2aH4,S5aH2,S3aH2,S3aH4,S4aH3,S4aH4,S3aH3,S4aH2,S5aH4,S5aH3,S1aH3</t>
+  </si>
+  <si>
+    <t>S4aH1,S1aH6,S4aH5,S1aH1,S2aH7,S4aH6,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH5,S2aH5,S5aH5,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH6,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH1,S2aH7,S4aH5,S1aH5,S2aH5,S5aH5,S1aH6,S2aH1,S3aH7,S4aH1,S2aH6,S3aH1,S3aH5</v>
+        <v>S4aH1,S1aH6,S4aH5,S1aH1,S2aH7,S4aH6,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH5,S2aH5,S5aH5,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH3,S5aH3,S1aH3,S3aH2,S3aH4,S4aH3,S4aH4,S1aH2,S2aH3,S2aH4,S5aH2,S4aH2,S5aH4,S1aH4,S2aH2</v>
+        <v>S1aH4,S2aH2,S1aH2,S2aH3,S2aH4,S5aH2,S3aH2,S3aH4,S4aH3,S4aH4,S3aH3,S4aH2,S5aH4,S5aH3,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1667,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C2DC09-3C03-4312-A3BD-C21C2E9FFCE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5DE385-AD0E-4132-821A-5BCA45B6067C}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1779,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE577269-0C76-41F7-B588-AE0D08F602AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551CAF2D-DD44-4671-9B09-72F72C9A8BE5}">
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1858,10 +1858,10 @@
         <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N4">
-        <v>9.4128004225724093E-2</v>
+        <v>9.9621445549784318E-2</v>
       </c>
       <c r="O4" t="s">
         <v>142</v>
@@ -1893,10 +1893,10 @@
         <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>9.0853068051765115E-2</v>
+        <v>0.41729025442380496</v>
       </c>
       <c r="O5" t="s">
         <v>142</v>
@@ -1928,10 +1928,10 @@
         <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>0.41729025442380491</v>
+        <v>9.0853068051765129E-2</v>
       </c>
       <c r="O6" t="s">
         <v>142</v>
@@ -1963,10 +1963,10 @@
         <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N7">
-        <v>0.49810722774892158</v>
+        <v>9.4128004225724093E-2</v>
       </c>
       <c r="O7" t="s">
         <v>142</v>
@@ -1998,10 +1998,10 @@
         <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N8">
-        <v>9.9621445549784304E-2</v>
+        <v>0.49810722774892163</v>
       </c>
       <c r="O8" t="s">
         <v>142</v>
@@ -2793,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DFF6E1-F8D7-4FE4-BCD5-1F7ED59C8564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E73F5A-2A80-45DE-A7AC-F269CD690369}">
   <dimension ref="B2:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262199C4-95ED-478D-9247-816AD62069BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6056D86-05FF-4146-A106-4D9E4179C392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -447,10 +447,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S2aH2,S1aH2,S2aH3,S2aH4,S5aH2,S3aH2,S3aH4,S4aH3,S4aH4,S3aH3,S4aH2,S5aH4,S5aH3,S1aH3</t>
-  </si>
-  <si>
-    <t>S4aH1,S1aH6,S4aH5,S1aH1,S2aH7,S4aH6,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH5,S2aH5,S5aH5,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7</t>
+    <t>S1aH2,S2aH3,S5aH4,S1aH3,S3aH3,S3aH2,S2aH4,S5aH2,S4aH2,S1aH4,S2aH2,S5aH3,S3aH4,S4aH3,S4aH4</t>
+  </si>
+  <si>
+    <t>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH6,S2aH6,S3aH1,S3aH5,S4aH5,S1aH6,S2aH1,S3aH7,S1aH5,S2aH5,S5aH5,S4aH1,S5aH1,S1aH1,S2aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH1,S1aH6,S4aH5,S1aH1,S2aH7,S4aH6,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH5,S2aH5,S5aH5,S5aH1,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7</v>
+        <v>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH6,S2aH6,S3aH1,S3aH5,S4aH5,S1aH6,S2aH1,S3aH7,S1aH5,S2aH5,S5aH5,S4aH1,S5aH1,S1aH1,S2aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S2aH2,S1aH2,S2aH3,S2aH4,S5aH2,S3aH2,S3aH4,S4aH3,S4aH4,S3aH3,S4aH2,S5aH4,S5aH3,S1aH3</v>
+        <v>S1aH2,S2aH3,S5aH4,S1aH3,S3aH3,S3aH2,S2aH4,S5aH2,S4aH2,S1aH4,S2aH2,S5aH3,S3aH4,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1667,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5DE385-AD0E-4132-821A-5BCA45B6067C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F12E1B-99A6-4DBE-9C3E-C2F72109987D}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1779,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551CAF2D-DD44-4671-9B09-72F72C9A8BE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF62F83-CA0A-4B78-BFB5-FDCD153A24DA}">
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1858,10 +1858,10 @@
         <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>9.9621445549784318E-2</v>
+        <v>0.49810722774892158</v>
       </c>
       <c r="O4" t="s">
         <v>142</v>
@@ -1893,10 +1893,10 @@
         <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N5">
-        <v>0.41729025442380496</v>
+        <v>9.0853068051765115E-2</v>
       </c>
       <c r="O5" t="s">
         <v>142</v>
@@ -1928,10 +1928,10 @@
         <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>9.0853068051765129E-2</v>
+        <v>9.9621445549784304E-2</v>
       </c>
       <c r="O6" t="s">
         <v>142</v>
@@ -1998,10 +1998,10 @@
         <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N8">
-        <v>0.49810722774892163</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O8" t="s">
         <v>142</v>
@@ -2793,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E73F5A-2A80-45DE-A7AC-F269CD690369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C7122C-F60B-4D01-A2D5-86F68CC66B6F}">
   <dimension ref="B2:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6056D86-05FF-4146-A106-4D9E4179C392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4A499-4AEC-4B4D-8866-B515D86219A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -447,10 +447,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S5aH4,S1aH3,S3aH3,S3aH2,S2aH4,S5aH2,S4aH2,S1aH4,S2aH2,S5aH3,S3aH4,S4aH3,S4aH4</t>
-  </si>
-  <si>
-    <t>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH6,S2aH6,S3aH1,S3aH5,S4aH5,S1aH6,S2aH1,S3aH7,S1aH5,S2aH5,S5aH5,S4aH1,S5aH1,S1aH1,S2aH7</t>
+    <t>S4aH2,S2aH4,S5aH2,S3aH2,S5aH3,S1aH4,S2aH2,S1aH2,S2aH3,S3aH3,S1aH3,S5aH4,S3aH4,S4aH3,S4aH4</t>
+  </si>
+  <si>
+    <t>S2aH1,S3aH7,S1aH6,S2aH6,S3aH1,S3aH5,S4aH5,S1aH5,S2aH5,S5aH5,S5aH1,S4aH1,S1aH1,S2aH7,S4aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH6,S2aH6,S3aH1,S3aH5,S4aH5,S1aH6,S2aH1,S3aH7,S1aH5,S2aH5,S5aH5,S4aH1,S5aH1,S1aH1,S2aH7</v>
+        <v>S2aH1,S3aH7,S1aH6,S2aH6,S3aH1,S3aH5,S4aH5,S1aH5,S2aH5,S5aH5,S5aH1,S4aH1,S1aH1,S2aH7,S4aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S5aH4,S1aH3,S3aH3,S3aH2,S2aH4,S5aH2,S4aH2,S1aH4,S2aH2,S5aH3,S3aH4,S4aH3,S4aH4</v>
+        <v>S4aH2,S2aH4,S5aH2,S3aH2,S5aH3,S1aH4,S2aH2,S1aH2,S2aH3,S3aH3,S1aH3,S5aH4,S3aH4,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1667,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F12E1B-99A6-4DBE-9C3E-C2F72109987D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D0BC53-D2D9-421E-88E0-C033F07BD3DE}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1779,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF62F83-CA0A-4B78-BFB5-FDCD153A24DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA81184C-25E0-49E0-858B-4B79A369BCB7}">
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1861,7 +1861,7 @@
         <v>79</v>
       </c>
       <c r="N4">
-        <v>0.49810722774892158</v>
+        <v>0.49810722774892152</v>
       </c>
       <c r="O4" t="s">
         <v>142</v>
@@ -1963,10 +1963,10 @@
         <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>9.4128004225724093E-2</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O7" t="s">
         <v>142</v>
@@ -1998,10 +1998,10 @@
         <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>0.41729025442380491</v>
+        <v>9.4128004225724093E-2</v>
       </c>
       <c r="O8" t="s">
         <v>142</v>
@@ -2793,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C7122C-F60B-4D01-A2D5-86F68CC66B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F580A4-EE27-4F58-BBD5-A5B1B93347E2}">
   <dimension ref="B2:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
